--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AU 2025_2026\Semestre_02_2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FBD44A5-D790-4701-A27A-164251D2F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDFF07-E872-49FC-9D84-841AFF030916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{338B85B3-192C-4888-8AD4-234B54257E03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>Année</t>
   </si>
@@ -61,13 +61,49 @@
   </si>
   <si>
     <t>SV</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>PUYSQ</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>LIM1</t>
+  </si>
+  <si>
+    <t>LIM2</t>
+  </si>
+  <si>
+    <t>LIM3</t>
+  </si>
+  <si>
+    <t>LIM4</t>
+  </si>
+  <si>
+    <t>LIM5</t>
+  </si>
+  <si>
+    <t>LIM6</t>
+  </si>
+  <si>
+    <t>LIM7</t>
+  </si>
+  <si>
+    <t>LIM8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -78,6 +114,11 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -424,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D7E9B-7BBC-41FA-816D-FE21B40DC767}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -600,7 +641,7 @@
         <v>2026</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -620,7 +661,7 @@
         <v>2026</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -655,7 +696,168 @@
         <v>80</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AU 2025_2026\Semestre_02_2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDFF07-E872-49FC-9D84-841AFF030916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA578DB-B593-4D6E-84F3-CFF6C9E86259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{338B85B3-192C-4888-8AD4-234B54257E03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>Année</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>LIM8</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>LIST1</t>
+  </si>
+  <si>
+    <t>LIST2</t>
+  </si>
+  <si>
+    <t>GAST2</t>
+  </si>
+  <si>
+    <t>GST3</t>
+  </si>
+  <si>
+    <t>LIST3</t>
   </si>
 </sst>
 </file>
@@ -465,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D7E9B-7BBC-41FA-816D-FE21B40DC767}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -601,16 +619,16 @@
         <v>2026</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>80</v>
@@ -621,19 +639,19 @@
         <v>2026</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -644,16 +662,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,16 +682,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -681,159 +699,159 @@
         <v>2026</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -841,18 +859,158 @@
         <v>2025</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
         <v>40</v>
       </c>
     </row>

--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AU 2025_2026\Semestre_02_2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA578DB-B593-4D6E-84F3-CFF6C9E86259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4083644-80C4-426D-B680-B66B70C8EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{338B85B3-192C-4888-8AD4-234B54257E03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
   <si>
     <t>Année</t>
   </si>
@@ -66,9 +66,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>PUYSQ</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>LIST3</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -483,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463D7E9B-7BBC-41FA-816D-FE21B40DC767}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
@@ -619,13 +625,13 @@
         <v>2026</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -642,10 +648,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -662,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -682,10 +688,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -699,13 +705,13 @@
         <v>2026</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -722,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -745,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -862,10 +868,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
@@ -882,10 +888,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -902,10 +908,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -919,13 +925,13 @@
         <v>2025</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -942,10 +948,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
@@ -959,13 +965,13 @@
         <v>2025</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -982,10 +988,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
@@ -999,13 +1005,13 @@
         <v>2025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1013,6 +1019,283 @@
       <c r="F26" s="2">
         <v>40</v>
       </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSGF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D23BC0-10B5-495E-BE10-296778718E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8782AE-5751-4405-BAD7-3540B3E31062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="18225" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="60">
   <si>
     <t>Année</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>INFO</t>
-  </si>
-  <si>
-    <t>2025-2026</t>
   </si>
 </sst>
 </file>
@@ -264,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,7 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -667,7 +663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -687,7 +683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2024</v>
       </c>
@@ -707,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -727,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -747,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -767,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -787,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -807,7 +803,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -827,7 +823,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -847,7 +843,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -867,7 +863,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -887,7 +883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -907,9 +903,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2026</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -927,9 +923,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>60</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2026</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -947,9 +943,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2026</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -967,9 +963,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -987,9 +983,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>60</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2026</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1007,9 +1003,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2026</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1027,9 +1023,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2026</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -1047,9 +1043,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2026</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -1067,9 +1063,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>60</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2026</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -1087,9 +1083,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2026</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -1107,9 +1103,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1127,9 +1123,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2026</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1147,9 +1143,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2026</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1167,9 +1163,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2026</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1187,9 +1183,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2026</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1207,9 +1203,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2026</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1227,9 +1223,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2026</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1247,9 +1243,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2026</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -1267,9 +1263,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2026</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1287,9 +1283,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2026</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1307,9 +1303,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2026</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>14</v>
@@ -1327,9 +1323,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>60</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2026</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>14</v>
@@ -1347,9 +1343,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2026</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
@@ -1367,9 +1363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>60</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2026</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
@@ -1387,9 +1383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>60</v>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2026</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>12</v>
@@ -1407,9 +1403,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>60</v>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2026</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>12</v>
@@ -1427,9 +1423,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>60</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2026</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>59</v>
@@ -1447,9 +1443,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>60</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2026</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>59</v>
@@ -1467,9 +1463,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>60</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2026</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>57</v>
@@ -1487,9 +1483,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>60</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2026</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>57</v>
@@ -1507,9 +1503,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>60</v>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2026</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>57</v>
@@ -1527,9 +1523,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>60</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2026</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>57</v>
@@ -1547,9 +1543,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>60</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2026</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>58</v>
@@ -1567,9 +1563,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>60</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2026</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>58</v>
@@ -1587,9 +1583,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>60</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2026</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>58</v>
@@ -1607,9 +1603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>60</v>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2026</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>58</v>
@@ -1627,9 +1623,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>60</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2026</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>57</v>
@@ -1647,9 +1643,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>60</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2026</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>57</v>
@@ -1667,9 +1663,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2026</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>20</v>
@@ -1687,9 +1683,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2026</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>20</v>
@@ -1707,9 +1703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2026</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>20</v>
@@ -1727,9 +1723,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>60</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2026</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>20</v>
@@ -1747,9 +1743,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2026</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>57</v>
@@ -1767,9 +1763,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>60</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2026</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>57</v>
@@ -1787,9 +1783,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>60</v>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2026</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>10</v>
@@ -1807,9 +1803,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>60</v>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2026</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>10</v>
@@ -1827,9 +1823,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2026</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>10</v>
@@ -1847,9 +1843,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2026</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>10</v>
@@ -1867,9 +1863,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2026</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>10</v>
@@ -1887,9 +1883,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>60</v>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2026</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>10</v>
@@ -1907,9 +1903,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>60</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2026</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>59</v>
@@ -1927,9 +1923,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>60</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2026</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>59</v>
@@ -1947,9 +1943,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>60</v>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2026</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>20</v>
@@ -1967,9 +1963,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>60</v>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2026</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
@@ -1987,9 +1983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>60</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2026</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>14</v>
@@ -2007,9 +2003,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>60</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2026</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>14</v>
@@ -2027,9 +2023,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>60</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2026</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>12</v>
@@ -2047,9 +2043,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>60</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2026</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>12</v>
@@ -2067,9 +2063,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>60</v>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2026</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -2087,9 +2083,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>60</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2026</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>12</v>
@@ -2107,9 +2103,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>60</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2026</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>59</v>
@@ -2127,9 +2123,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>60</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2026</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>59</v>
@@ -2147,9 +2143,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>60</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2026</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>57</v>
@@ -2167,9 +2163,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>60</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2026</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>57</v>
@@ -2187,9 +2183,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>60</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2026</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>58</v>
@@ -2207,9 +2203,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>60</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2026</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>58</v>
@@ -2227,9 +2223,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>60</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2026</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>58</v>
@@ -2247,9 +2243,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>60</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2026</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2267,9 +2263,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>60</v>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2026</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>57</v>
@@ -2287,9 +2283,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>60</v>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2026</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>57</v>
@@ -2307,9 +2303,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>60</v>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2026</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>57</v>
@@ -2327,9 +2323,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>60</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2026</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2347,9 +2343,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>60</v>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2026</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -2367,9 +2363,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>60</v>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2026</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>10</v>
@@ -2387,9 +2383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>60</v>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2026</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>10</v>
@@ -2407,9 +2403,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>60</v>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2026</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>10</v>
@@ -2427,9 +2423,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>60</v>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2026</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>10</v>
@@ -2447,9 +2443,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>60</v>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2026</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>10</v>
@@ -2467,9 +2463,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>60</v>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2026</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>59</v>
@@ -2487,9 +2483,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>60</v>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2026</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>59</v>
@@ -2500,21 +2496,393 @@
       <c r="D94" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2023</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2023</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2023</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2023</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2023</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2023</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2023</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2023</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2023</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2023</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2023</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2023</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2023</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2023</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2023</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSGF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8782AE-5751-4405-BAD7-3540B3E31062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDD375-BFD0-40DB-A415-479481EAB517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="18225" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="60">
   <si>
     <t>Année</t>
   </si>
@@ -215,21 +215,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -237,45 +231,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -919,7 +880,7 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>24</v>
       </c>
     </row>
@@ -939,7 +900,7 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>49</v>
       </c>
     </row>
@@ -959,7 +920,7 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>11</v>
       </c>
     </row>
@@ -979,7 +940,7 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>4</v>
       </c>
     </row>
@@ -999,7 +960,7 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>13</v>
       </c>
     </row>
@@ -1019,7 +980,7 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>10</v>
       </c>
     </row>
@@ -1039,7 +1000,7 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>82</v>
       </c>
     </row>
@@ -1059,7 +1020,7 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>125</v>
       </c>
     </row>
@@ -1079,7 +1040,7 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>33</v>
       </c>
     </row>
@@ -1099,7 +1060,7 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>49</v>
       </c>
     </row>
@@ -1119,7 +1080,7 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>61</v>
       </c>
     </row>
@@ -1139,7 +1100,7 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>17</v>
       </c>
     </row>
@@ -1159,7 +1120,7 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>65</v>
       </c>
     </row>
@@ -1179,7 +1140,7 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>6</v>
       </c>
     </row>
@@ -1199,7 +1160,7 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>90</v>
       </c>
     </row>
@@ -1219,7 +1180,7 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>7</v>
       </c>
     </row>
@@ -1239,7 +1200,7 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>13</v>
       </c>
     </row>
@@ -1259,7 +1220,7 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>13</v>
       </c>
     </row>
@@ -1279,7 +1240,7 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>62</v>
       </c>
     </row>
@@ -1299,7 +1260,7 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>9</v>
       </c>
     </row>
@@ -1307,19 +1268,19 @@
       <c r="A35">
         <v>2026</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
     </row>
@@ -1327,19 +1288,19 @@
       <c r="A36">
         <v>2026</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
@@ -1347,19 +1308,19 @@
       <c r="A37">
         <v>2026</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
@@ -1367,19 +1328,19 @@
       <c r="A38">
         <v>2026</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
     </row>
@@ -1387,19 +1348,19 @@
       <c r="A39">
         <v>2026</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
@@ -1407,19 +1368,19 @@
       <c r="A40">
         <v>2026</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
     </row>
@@ -1427,19 +1388,19 @@
       <c r="A41">
         <v>2026</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>43</v>
       </c>
     </row>
@@ -1447,19 +1408,19 @@
       <c r="A42">
         <v>2026</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
         <v>30</v>
       </c>
     </row>
@@ -1467,19 +1428,19 @@
       <c r="A43">
         <v>2026</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
     </row>
@@ -1487,19 +1448,19 @@
       <c r="A44">
         <v>2026</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
         <v>13</v>
       </c>
     </row>
@@ -1507,19 +1468,19 @@
       <c r="A45">
         <v>2026</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>8</v>
       </c>
     </row>
@@ -1527,19 +1488,19 @@
       <c r="A46">
         <v>2026</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
         <v>11</v>
       </c>
     </row>
@@ -1547,19 +1508,19 @@
       <c r="A47">
         <v>2026</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
         <v>2</v>
       </c>
     </row>
@@ -1567,19 +1528,19 @@
       <c r="A48">
         <v>2026</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
         <v>2</v>
       </c>
     </row>
@@ -1587,19 +1548,19 @@
       <c r="A49">
         <v>2026</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <v>6</v>
       </c>
     </row>
@@ -1607,19 +1568,19 @@
       <c r="A50">
         <v>2026</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
         <v>2</v>
       </c>
     </row>
@@ -1627,19 +1588,19 @@
       <c r="A51">
         <v>2026</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
         <v>14</v>
       </c>
     </row>
@@ -1647,19 +1608,19 @@
       <c r="A52">
         <v>2026</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
         <v>7</v>
       </c>
     </row>
@@ -1667,19 +1628,19 @@
       <c r="A53">
         <v>2026</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
@@ -1687,19 +1648,19 @@
       <c r="A54">
         <v>2026</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
         <v>0</v>
       </c>
     </row>
@@ -1707,19 +1668,19 @@
       <c r="A55">
         <v>2026</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
         <v>31</v>
       </c>
     </row>
@@ -1727,19 +1688,19 @@
       <c r="A56">
         <v>2026</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
         <v>7</v>
       </c>
     </row>
@@ -1747,19 +1708,19 @@
       <c r="A57">
         <v>2026</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
         <v>10</v>
       </c>
     </row>
@@ -1767,19 +1728,19 @@
       <c r="A58">
         <v>2026</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
         <v>8</v>
       </c>
     </row>
@@ -1787,19 +1748,19 @@
       <c r="A59">
         <v>2026</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
         <v>30</v>
       </c>
     </row>
@@ -1807,19 +1768,19 @@
       <c r="A60">
         <v>2026</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
         <v>0</v>
       </c>
     </row>
@@ -1827,19 +1788,19 @@
       <c r="A61">
         <v>2026</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
         <v>44</v>
       </c>
     </row>
@@ -1847,19 +1808,19 @@
       <c r="A62">
         <v>2026</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
@@ -1867,19 +1828,19 @@
       <c r="A63">
         <v>2026</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
         <v>42</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
         <v>14</v>
       </c>
     </row>
@@ -1887,19 +1848,19 @@
       <c r="A64">
         <v>2026</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
     </row>
@@ -1907,19 +1868,19 @@
       <c r="A65">
         <v>2026</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="5">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
     </row>
@@ -1927,19 +1888,19 @@
       <c r="A66">
         <v>2026</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
         <v>19</v>
       </c>
     </row>
@@ -1947,19 +1908,19 @@
       <c r="A67">
         <v>2026</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
     </row>
@@ -1967,19 +1928,19 @@
       <c r="A68">
         <v>2026</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
         <v>0</v>
       </c>
     </row>
@@ -1987,19 +1948,19 @@
       <c r="A69">
         <v>2026</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
         <v>7</v>
       </c>
     </row>
@@ -2007,19 +1968,19 @@
       <c r="A70">
         <v>2026</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <v>2</v>
       </c>
     </row>
@@ -2027,19 +1988,19 @@
       <c r="A71">
         <v>2026</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
@@ -2047,19 +2008,19 @@
       <c r="A72">
         <v>2026</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
         <v>46</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
     </row>
@@ -2067,19 +2028,19 @@
       <c r="A73">
         <v>2026</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
         <v>2</v>
       </c>
     </row>
@@ -2087,19 +2048,19 @@
       <c r="A74">
         <v>2026</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
@@ -2107,19 +2068,19 @@
       <c r="A75">
         <v>2026</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
         <v>69</v>
       </c>
     </row>
@@ -2127,19 +2088,19 @@
       <c r="A76">
         <v>2026</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76">
         <v>41</v>
       </c>
     </row>
@@ -2147,19 +2108,19 @@
       <c r="A77">
         <v>2026</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
         <v>3</v>
       </c>
     </row>
@@ -2167,19 +2128,19 @@
       <c r="A78">
         <v>2026</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
     </row>
@@ -2187,19 +2148,19 @@
       <c r="A79">
         <v>2026</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
         <v>5</v>
       </c>
     </row>
@@ -2207,19 +2168,19 @@
       <c r="A80">
         <v>2026</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
         <v>50</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80">
         <v>3</v>
       </c>
     </row>
@@ -2227,19 +2188,19 @@
       <c r="A81">
         <v>2026</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
         <v>11</v>
       </c>
     </row>
@@ -2247,19 +2208,19 @@
       <c r="A82">
         <v>2026</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
         <v>6</v>
       </c>
     </row>
@@ -2267,19 +2228,19 @@
       <c r="A83">
         <v>2026</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
         <v>51</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83">
         <v>16</v>
       </c>
     </row>
@@ -2287,19 +2248,19 @@
       <c r="A84">
         <v>2026</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
         <v>13</v>
       </c>
     </row>
@@ -2307,19 +2268,19 @@
       <c r="A85">
         <v>2026</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85">
         <v>23</v>
       </c>
     </row>
@@ -2327,19 +2288,19 @@
       <c r="A86">
         <v>2026</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
         <v>13</v>
       </c>
     </row>
@@ -2347,19 +2308,19 @@
       <c r="A87">
         <v>2026</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87">
         <v>18</v>
       </c>
     </row>
@@ -2367,19 +2328,19 @@
       <c r="A88">
         <v>2026</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
         <v>2</v>
       </c>
     </row>
@@ -2387,19 +2348,19 @@
       <c r="A89">
         <v>2026</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89">
         <v>53</v>
       </c>
     </row>
@@ -2407,19 +2368,19 @@
       <c r="A90">
         <v>2026</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90">
         <v>4</v>
       </c>
     </row>
@@ -2427,19 +2388,19 @@
       <c r="A91">
         <v>2026</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
         <v>55</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91">
         <v>18</v>
       </c>
     </row>
@@ -2447,19 +2408,19 @@
       <c r="A92">
         <v>2026</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92">
         <v>2</v>
       </c>
     </row>
@@ -2467,19 +2428,19 @@
       <c r="A93">
         <v>2026</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="5">
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
         <v>7</v>
       </c>
     </row>
@@ -2487,25 +2448,25 @@
       <c r="A94">
         <v>2026</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
         <v>56</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -2525,7 +2486,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -2545,7 +2506,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -2565,7 +2526,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
@@ -2585,7 +2546,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -2605,7 +2566,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2625,7 +2586,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -2645,7 +2606,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -2665,7 +2626,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -2685,202 +2646,822 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2023</v>
-      </c>
-      <c r="B104" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B104" t="s">
         <v>57</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
         <v>51</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>2023</v>
-      </c>
-      <c r="B105" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B105" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
         <v>51</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105">
         <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2023</v>
-      </c>
-      <c r="B106" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B106" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
         <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2023</v>
-      </c>
-      <c r="B107" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B107" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
         <v>52</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
         <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>2023</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
         <v>53</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
         <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>2023</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2023</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
         <v>54</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="3">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110">
         <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2023</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
         <v>54</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2023</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
         <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>2025</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2025</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2025</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2025</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2025</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>2023</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2023</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2023</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2023</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2023</v>
+      </c>
+      <c r="B123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2023</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2023</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2023</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2023</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2023</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2023</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2023</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2023</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2023</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
         <v>55</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2023</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
         <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2023</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2023</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>56</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2023</v>
+      </c>
+      <c r="B136" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2023</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2023</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2023</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2023</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2023</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2023</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2023</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2023</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/fsgf.xlsx
+++ b/data/fsgf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSGF\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDD375-BFD0-40DB-A415-479481EAB517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C050C38C-5F92-4504-9FCB-5B1087C9E38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="18225" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="60">
   <si>
     <t>Année</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2946,87 +2946,87 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B123" t="s">
         <v>57</v>
@@ -3035,18 +3035,18 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
       </c>
       <c r="F123">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B124" t="s">
         <v>57</v>
@@ -3055,78 +3055,78 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F124">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F126">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B127" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -3135,18 +3135,18 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E128" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F128">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -3155,18 +3155,18 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -3175,53 +3175,53 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F130">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,19 +3229,19 @@
         <v>2023</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3249,19 +3249,19 @@
         <v>2023</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3269,19 +3269,19 @@
         <v>2023</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,19 +3289,19 @@
         <v>2023</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E136" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,19 +3309,19 @@
         <v>2023</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F137">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,19 +3329,19 @@
         <v>2023</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,19 +3349,19 @@
         <v>2023</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3369,19 +3369,19 @@
         <v>2023</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140">
         <v>23</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140">
-        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3389,19 +3389,19 @@
         <v>2023</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F141">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,16 +3412,16 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142">
         <v>18</v>
-      </c>
-      <c r="E142" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142">
-        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,19 +3429,19 @@
         <v>2023</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F143">
-        <v>98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,19 +3449,739 @@
         <v>2023</v>
       </c>
       <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2023</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>54</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2023</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2023</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2023</v>
+      </c>
+      <c r="B148" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2023</v>
+      </c>
+      <c r="B149" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2023</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2023</v>
+      </c>
+      <c r="B151" t="s">
         <v>14</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2023</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
         <v>23</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2023</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2023</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2023</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2023</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2023</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2023</v>
+      </c>
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
         <v>21</v>
       </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144">
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158">
         <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2022</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2022</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2022</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2022</v>
+      </c>
+      <c r="B162" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2022</v>
+      </c>
+      <c r="B163" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>56</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2022</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2022</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2022</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2022</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2022</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2022</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2022</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2022</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2022</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2022</v>
+      </c>
+      <c r="B173" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2022</v>
+      </c>
+      <c r="B174" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>51</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2022</v>
+      </c>
+      <c r="B175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2022</v>
+      </c>
+      <c r="B176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>52</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2022</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2022</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2022</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2022</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
